--- a/CSVs/xlsx/task13.xlsx
+++ b/CSVs/xlsx/task13.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Stuff\OpenMP\CSVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\source\repos\Univ\OpenMP\Lab1\CSVs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4480" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="task11" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -672,31 +672,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.3994100000000003E-2</c:v>
+                  <c:v>0.13909299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19256599999999999</c:v>
+                  <c:v>0.56917399999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42817699999999997</c:v>
+                  <c:v>0.59690699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.760826</c:v>
+                  <c:v>1.17248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.13463</c:v>
+                  <c:v>1.77877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5858399999999999</c:v>
+                  <c:v>2.2677299999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.33005</c:v>
+                  <c:v>3.4231500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -769,31 +769,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.8322799999999999</c:v>
+                  <c:v>13.0496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0304600000000002</c:v>
+                  <c:v>6.3202199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1473</c:v>
+                  <c:v>5.3887999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5365899999999999</c:v>
+                  <c:v>5.9387800000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7486199999999998</c:v>
+                  <c:v>6.0454400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0357500000000002</c:v>
+                  <c:v>6.9111500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1312799999999998</c:v>
+                  <c:v>7.5374999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -866,31 +866,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22.049199999999999</c:v>
+                  <c:v>53.8125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3064</c:v>
+                  <c:v>21.994700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8413899999999996</c:v>
+                  <c:v>21.198899999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6904000000000003</c:v>
+                  <c:v>21.395600000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2135200000000008</c:v>
+                  <c:v>21.372199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3656799999999993</c:v>
+                  <c:v>22.612500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0239700000000003</c:v>
+                  <c:v>22.5749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -963,31 +963,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>88.677499999999995</c:v>
+                  <c:v>176.19900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.209699999999998</c:v>
+                  <c:v>82.769099999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.392199999999999</c:v>
+                  <c:v>79.056200000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.345400000000001</c:v>
+                  <c:v>87.599800000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.138500000000001</c:v>
+                  <c:v>79.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.365400000000001</c:v>
+                  <c:v>80.234300000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.3399</c:v>
+                  <c:v>80.694599999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1060,31 +1060,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>197.41399999999999</c:v>
+                  <c:v>395.12799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.370100000000001</c:v>
+                  <c:v>179.899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.231400000000001</c:v>
+                  <c:v>162.43700000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.534199999999998</c:v>
+                  <c:v>164.81200000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.706299999999999</c:v>
+                  <c:v>164.27799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54.727699999999999</c:v>
+                  <c:v>166.38499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.6205</c:v>
+                  <c:v>169.852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1157,31 +1157,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>349.24599999999998</c:v>
+                  <c:v>706.51400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.114</c:v>
+                  <c:v>319.18799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.17100000000001</c:v>
+                  <c:v>264.49400000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.048</c:v>
+                  <c:v>262.40100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.724</c:v>
+                  <c:v>262.40899999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.059</c:v>
+                  <c:v>275.86500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108.45399999999999</c:v>
+                  <c:v>266.72699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1260,31 +1260,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>548.96299999999997</c:v>
+                  <c:v>1102.8800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169.56</c:v>
+                  <c:v>500.10899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146.273</c:v>
+                  <c:v>403.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.374</c:v>
+                  <c:v>403.827</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>157.874</c:v>
+                  <c:v>416.56099999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148.375</c:v>
+                  <c:v>405.23599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148.041</c:v>
+                  <c:v>405.80599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000012-5A49-4B2A-A5F6-542E0EDBE447}"/>
             </c:ext>
@@ -1298,11 +1298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389261544"/>
-        <c:axId val="389260232"/>
+        <c:axId val="1197643168"/>
+        <c:axId val="1197642624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389261544"/>
+        <c:axId val="1197643168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="uk-UA"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1412,15 +1412,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389260232"/>
+        <c:crossAx val="1197642624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389260232"/>
+        <c:axId val="1197642624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1498,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="uk-UA"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1536,10 +1536,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389261544"/>
+        <c:crossAx val="1197643168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1579,7 +1579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1609,7 +1609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2474,15 +2474,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2505,169 +2508,170 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>5.3994100000000003E-2</v>
+        <v>0.13909299999999999</v>
       </c>
       <c r="B2">
-        <v>0.19256599999999999</v>
+        <v>0.56917399999999996</v>
       </c>
       <c r="C2">
-        <v>0.42817699999999997</v>
+        <v>0.59690699999999997</v>
       </c>
       <c r="D2">
-        <v>0.760826</v>
+        <v>1.17248</v>
       </c>
       <c r="E2">
-        <v>1.13463</v>
+        <v>1.77877</v>
       </c>
       <c r="F2">
-        <v>1.5858399999999999</v>
+        <v>2.2677299999999998</v>
       </c>
       <c r="G2">
-        <v>2.33005</v>
+        <v>3.4231500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>4.8322799999999999</v>
+        <v>13.0496</v>
       </c>
       <c r="B3">
-        <v>3.0304600000000002</v>
+        <v>6.3202199999999999</v>
       </c>
       <c r="C3">
-        <v>2.1473</v>
+        <v>5.3887999999999998</v>
       </c>
       <c r="D3">
-        <v>2.5365899999999999</v>
+        <v>5.9387800000000004</v>
       </c>
       <c r="E3">
-        <v>3.7486199999999998</v>
+        <v>6.0454400000000001</v>
       </c>
       <c r="F3">
-        <v>3.0357500000000002</v>
+        <v>6.9111500000000001</v>
       </c>
       <c r="G3">
-        <v>3.1312799999999998</v>
+        <v>7.5374999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>22.049199999999999</v>
+        <v>53.8125</v>
       </c>
       <c r="B4">
-        <v>8.3064</v>
+        <v>21.994700000000002</v>
       </c>
       <c r="C4">
-        <v>6.8413899999999996</v>
+        <v>21.198899999999998</v>
       </c>
       <c r="D4">
-        <v>8.6904000000000003</v>
+        <v>21.395600000000002</v>
       </c>
       <c r="E4">
-        <v>8.2135200000000008</v>
+        <v>21.372199999999999</v>
       </c>
       <c r="F4">
-        <v>8.3656799999999993</v>
+        <v>22.612500000000001</v>
       </c>
       <c r="G4">
-        <v>8.0239700000000003</v>
+        <v>22.5749</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>88.677499999999995</v>
+        <v>176.19900000000001</v>
       </c>
       <c r="B5">
-        <v>38.209699999999998</v>
+        <v>82.769099999999995</v>
       </c>
       <c r="C5">
-        <v>28.392199999999999</v>
+        <v>79.056200000000004</v>
       </c>
       <c r="D5">
-        <v>28.345400000000001</v>
+        <v>87.599800000000002</v>
       </c>
       <c r="E5">
-        <v>30.138500000000001</v>
+        <v>79.91</v>
       </c>
       <c r="F5">
-        <v>28.365400000000001</v>
+        <v>80.234300000000005</v>
       </c>
       <c r="G5">
-        <v>34.3399</v>
+        <v>80.694599999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>197.41399999999999</v>
+        <v>395.12799999999999</v>
       </c>
       <c r="B6">
-        <v>61.370100000000001</v>
+        <v>179.899</v>
       </c>
       <c r="C6">
-        <v>53.231400000000001</v>
+        <v>162.43700000000001</v>
       </c>
       <c r="D6">
-        <v>53.534199999999998</v>
+        <v>164.81200000000001</v>
       </c>
       <c r="E6">
-        <v>60.706299999999999</v>
+        <v>164.27799999999999</v>
       </c>
       <c r="F6">
-        <v>54.727699999999999</v>
+        <v>166.38499999999999</v>
       </c>
       <c r="G6">
-        <v>54.6205</v>
+        <v>169.852</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>349.24599999999998</v>
+        <v>706.51400000000001</v>
       </c>
       <c r="B7">
-        <v>109.114</v>
+        <v>319.18799999999999</v>
       </c>
       <c r="C7">
-        <v>101.17100000000001</v>
+        <v>264.49400000000003</v>
       </c>
       <c r="D7">
-        <v>103.048</v>
+        <v>262.40100000000001</v>
       </c>
       <c r="E7">
-        <v>102.724</v>
+        <v>262.40899999999999</v>
       </c>
       <c r="F7">
-        <v>102.059</v>
+        <v>275.86500000000001</v>
       </c>
       <c r="G7">
-        <v>108.45399999999999</v>
+        <v>266.72699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>548.96299999999997</v>
+        <v>1102.8800000000001</v>
       </c>
       <c r="B8">
-        <v>169.56</v>
+        <v>500.10899999999998</v>
       </c>
       <c r="C8">
-        <v>146.273</v>
+        <v>403.94</v>
       </c>
       <c r="D8">
-        <v>147.374</v>
+        <v>403.827</v>
       </c>
       <c r="E8">
-        <v>157.874</v>
+        <v>416.56099999999998</v>
       </c>
       <c r="F8">
-        <v>148.375</v>
+        <v>405.23599999999999</v>
       </c>
       <c r="G8">
-        <v>148.041</v>
+        <v>405.80599999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>